--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/19/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/19/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.27264</v>
+        <v>3.30529</v>
       </c>
       <c r="C5" t="n">
-        <v>3272.64</v>
+        <v>3305.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124001</v>
+        <v>0.123992</v>
       </c>
       <c r="B6" t="n">
-        <v>3.95327</v>
+        <v>3.86599</v>
       </c>
       <c r="C6" t="n">
-        <v>3953.27</v>
+        <v>3865.99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155032</v>
+        <v>0.155023</v>
       </c>
       <c r="B7" t="n">
-        <v>4.7127</v>
+        <v>4.42011</v>
       </c>
       <c r="C7" t="n">
-        <v>4712.7</v>
+        <v>4420.11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186008</v>
+        <v>0.185999</v>
       </c>
       <c r="B8" t="n">
-        <v>5.32155</v>
+        <v>4.75882</v>
       </c>
       <c r="C8" t="n">
-        <v>5321.55</v>
+        <v>4758.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216984</v>
+        <v>0.216975</v>
       </c>
       <c r="B9" t="n">
-        <v>5.87679</v>
+        <v>4.98808</v>
       </c>
       <c r="C9" t="n">
-        <v>5876.79</v>
+        <v>4988.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247914</v>
+        <v>0.247951</v>
       </c>
       <c r="B10" t="n">
-        <v>6.42986</v>
+        <v>5.06349</v>
       </c>
       <c r="C10" t="n">
-        <v>6429.86</v>
+        <v>5063.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278839</v>
+        <v>0.278879</v>
       </c>
       <c r="B11" t="n">
-        <v>6.87024</v>
+        <v>5.10169</v>
       </c>
       <c r="C11" t="n">
-        <v>6870.24</v>
+        <v>5101.69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309764</v>
+        <v>0.309804</v>
       </c>
       <c r="B12" t="n">
-        <v>7.30255</v>
+        <v>5.12554</v>
       </c>
       <c r="C12" t="n">
-        <v>7302.55</v>
+        <v>5125.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340689</v>
+        <v>0.340729</v>
       </c>
       <c r="B13" t="n">
-        <v>7.607220000000001</v>
+        <v>5.14531</v>
       </c>
       <c r="C13" t="n">
-        <v>7607.22</v>
+        <v>5145.31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371614</v>
+        <v>0.371654</v>
       </c>
       <c r="B14" t="n">
-        <v>7.86055</v>
+        <v>5.16276</v>
       </c>
       <c r="C14" t="n">
-        <v>7860.55</v>
+        <v>5162.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402539</v>
+        <v>0.402579</v>
       </c>
       <c r="B15" t="n">
-        <v>7.945520000000001</v>
+        <v>5.17687</v>
       </c>
       <c r="C15" t="n">
-        <v>7945.52</v>
+        <v>5176.87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433464</v>
+        <v>0.433504</v>
       </c>
       <c r="B16" t="n">
-        <v>7.9443</v>
+        <v>5.189109999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>7944.3</v>
+        <v>5189.11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464389</v>
+        <v>0.464425</v>
       </c>
       <c r="B17" t="n">
-        <v>7.922899999999999</v>
+        <v>5.19943</v>
       </c>
       <c r="C17" t="n">
-        <v>7922.9</v>
+        <v>5199.43</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495314</v>
+        <v>0.49535</v>
       </c>
       <c r="B18" t="n">
-        <v>7.89762</v>
+        <v>5.207170000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>7897.62</v>
+        <v>5207.17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526239</v>
+        <v>0.526275</v>
       </c>
       <c r="B19" t="n">
-        <v>7.87067</v>
+        <v>5.21441</v>
       </c>
       <c r="C19" t="n">
-        <v>7870.67</v>
+        <v>5214.41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557164</v>
+        <v>0.5572</v>
       </c>
       <c r="B20" t="n">
-        <v>7.84224</v>
+        <v>5.21988</v>
       </c>
       <c r="C20" t="n">
-        <v>7842.24</v>
+        <v>5219.88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.58809</v>
+        <v>0.588125</v>
       </c>
       <c r="B21" t="n">
-        <v>7.81271</v>
+        <v>5.224390000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>7812.71</v>
+        <v>5224.39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619132</v>
+        <v>0.619167</v>
       </c>
       <c r="B22" t="n">
-        <v>7.78194</v>
+        <v>5.22778</v>
       </c>
       <c r="C22" t="n">
-        <v>7781.94</v>
+        <v>5227.78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650304</v>
+        <v>0.650344</v>
       </c>
       <c r="B23" t="n">
-        <v>7.74965</v>
+        <v>5.23036</v>
       </c>
       <c r="C23" t="n">
-        <v>7749.65</v>
+        <v>5230.36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681477</v>
+        <v>0.681516</v>
       </c>
       <c r="B24" t="n">
-        <v>7.71644</v>
+        <v>5.231920000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>7716.44</v>
+        <v>5231.92</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712654</v>
+        <v>0.712689</v>
       </c>
       <c r="B25" t="n">
-        <v>7.68182</v>
+        <v>5.23265</v>
       </c>
       <c r="C25" t="n">
-        <v>7681.82</v>
+        <v>5232.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743826</v>
+        <v>0.743866</v>
       </c>
       <c r="B26" t="n">
-        <v>7.64569</v>
+        <v>5.23257</v>
       </c>
       <c r="C26" t="n">
-        <v>7645.69</v>
+        <v>5232.57</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774999</v>
+        <v>0.775038</v>
       </c>
       <c r="B27" t="n">
-        <v>7.60825</v>
+        <v>5.2317</v>
       </c>
       <c r="C27" t="n">
-        <v>7608.25</v>
+        <v>5231.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806176</v>
+        <v>0.806211</v>
       </c>
       <c r="B28" t="n">
-        <v>7.56874</v>
+        <v>5.230060000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>7568.74</v>
+        <v>5230.06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837348</v>
+        <v>0.837388</v>
       </c>
       <c r="B29" t="n">
-        <v>7.52634</v>
+        <v>5.22771</v>
       </c>
       <c r="C29" t="n">
-        <v>7526.34</v>
+        <v>5227.71</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868525</v>
+        <v>0.868561</v>
       </c>
       <c r="B30" t="n">
-        <v>7.48123</v>
+        <v>5.22461</v>
       </c>
       <c r="C30" t="n">
-        <v>7481.23</v>
+        <v>5224.61</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899698</v>
+        <v>0.899733</v>
       </c>
       <c r="B31" t="n">
-        <v>7.433380000000001</v>
+        <v>5.22081</v>
       </c>
       <c r="C31" t="n">
-        <v>7433.38</v>
+        <v>5220.81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930871</v>
+        <v>0.93091</v>
       </c>
       <c r="B32" t="n">
-        <v>7.38253</v>
+        <v>5.21629</v>
       </c>
       <c r="C32" t="n">
-        <v>7382.53</v>
+        <v>5216.29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962048</v>
+        <v>0.962083</v>
       </c>
       <c r="B33" t="n">
-        <v>7.328060000000001</v>
+        <v>5.2111</v>
       </c>
       <c r="C33" t="n">
-        <v>7328.06</v>
+        <v>5211.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99322</v>
+        <v>0.99326</v>
       </c>
       <c r="B34" t="n">
-        <v>7.27046</v>
+        <v>5.20506</v>
       </c>
       <c r="C34" t="n">
-        <v>7270.46</v>
+        <v>5205.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02454</v>
+        <v>1.02456</v>
       </c>
       <c r="B35" t="n">
-        <v>7.20896</v>
+        <v>5.19811</v>
       </c>
       <c r="C35" t="n">
-        <v>7208.96</v>
+        <v>5198.11</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05592</v>
+        <v>1.05574</v>
       </c>
       <c r="B36" t="n">
-        <v>7.14494</v>
+        <v>5.19045</v>
       </c>
       <c r="C36" t="n">
-        <v>7144.94</v>
+        <v>5190.45</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0873</v>
+        <v>1.08671</v>
       </c>
       <c r="B37" t="n">
-        <v>7.07643</v>
+        <v>5.18212</v>
       </c>
       <c r="C37" t="n">
-        <v>7076.43</v>
+        <v>5182.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11868</v>
+        <v>1.11767</v>
       </c>
       <c r="B38" t="n">
-        <v>7.00579</v>
+        <v>5.17308</v>
       </c>
       <c r="C38" t="n">
-        <v>7005.79</v>
+        <v>5173.08</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.15001</v>
+        <v>1.14864</v>
       </c>
       <c r="B39" t="n">
-        <v>4.9526</v>
+        <v>5.16334</v>
       </c>
       <c r="C39" t="n">
-        <v>4952.6</v>
+        <v>5163.34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.18073</v>
+        <v>1.17961</v>
       </c>
       <c r="B40" t="n">
-        <v>6.08706</v>
+        <v>5.15286</v>
       </c>
       <c r="C40" t="n">
-        <v>6087.06</v>
+        <v>5152.86</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21184</v>
+        <v>1.21058</v>
       </c>
       <c r="B41" t="n">
-        <v>6.84555</v>
+        <v>5.1416</v>
       </c>
       <c r="C41" t="n">
-        <v>6845.55</v>
+        <v>5141.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24322</v>
+        <v>1.24154</v>
       </c>
       <c r="B42" t="n">
-        <v>6.57796</v>
+        <v>5.12958</v>
       </c>
       <c r="C42" t="n">
-        <v>6577.96</v>
+        <v>5129.58</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27415</v>
+        <v>1.27251</v>
       </c>
       <c r="B43" t="n">
-        <v>6.7118</v>
+        <v>5.11664</v>
       </c>
       <c r="C43" t="n">
-        <v>6711.8</v>
+        <v>5116.64</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30491</v>
+        <v>1.30348</v>
       </c>
       <c r="B44" t="n">
-        <v>6.62574</v>
+        <v>5.10267</v>
       </c>
       <c r="C44" t="n">
-        <v>6625.74</v>
+        <v>5102.67</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33663</v>
+        <v>1.33445</v>
       </c>
       <c r="B45" t="n">
-        <v>6.520060000000001</v>
+        <v>5.08775</v>
       </c>
       <c r="C45" t="n">
-        <v>6520.06</v>
+        <v>5087.75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36835</v>
+        <v>1.36542</v>
       </c>
       <c r="B46" t="n">
-        <v>6.39331</v>
+        <v>5.07187</v>
       </c>
       <c r="C46" t="n">
-        <v>6393.31</v>
+        <v>5071.87</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.40007</v>
+        <v>1.39638</v>
       </c>
       <c r="B47" t="n">
-        <v>6.24423</v>
+        <v>5.05505</v>
       </c>
       <c r="C47" t="n">
-        <v>6244.23</v>
+        <v>5055.05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.43179</v>
+        <v>1.42735</v>
       </c>
       <c r="B48" t="n">
-        <v>6.13675</v>
+        <v>5.03727</v>
       </c>
       <c r="C48" t="n">
-        <v>6136.75</v>
+        <v>5037.27</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.46351</v>
+        <v>1.45832</v>
       </c>
       <c r="B49" t="n">
-        <v>5.998180000000001</v>
+        <v>5.0185</v>
       </c>
       <c r="C49" t="n">
-        <v>5998.18</v>
+        <v>5018.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.49523</v>
+        <v>1.48929</v>
       </c>
       <c r="B50" t="n">
-        <v>5.89286</v>
+        <v>4.99861</v>
       </c>
       <c r="C50" t="n">
-        <v>5892.86</v>
+        <v>4998.61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.52695</v>
+        <v>1.52026</v>
       </c>
       <c r="B51" t="n">
-        <v>5.80624</v>
+        <v>4.977609999999999</v>
       </c>
       <c r="C51" t="n">
-        <v>5806.24</v>
+        <v>4977.61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55867</v>
+        <v>1.55122</v>
       </c>
       <c r="B52" t="n">
-        <v>5.702850000000001</v>
+        <v>4.95546</v>
       </c>
       <c r="C52" t="n">
-        <v>5702.85</v>
+        <v>4955.46</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5904</v>
+        <v>1.58219</v>
       </c>
       <c r="B53" t="n">
-        <v>5.61491</v>
+        <v>4.93212</v>
       </c>
       <c r="C53" t="n">
-        <v>5614.91</v>
+        <v>4932.12</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.62204</v>
+        <v>1.61316</v>
       </c>
       <c r="B54" t="n">
-        <v>5.51649</v>
+        <v>4.9076</v>
       </c>
       <c r="C54" t="n">
-        <v>5516.49</v>
+        <v>4907.6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.65301</v>
+        <v>1.64393</v>
       </c>
       <c r="B55" t="n">
-        <v>5.42192</v>
+        <v>4.88195</v>
       </c>
       <c r="C55" t="n">
-        <v>5421.92</v>
+        <v>4881.95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.68428</v>
+        <v>1.67517</v>
       </c>
       <c r="B56" t="n">
-        <v>5.30974</v>
+        <v>4.85462</v>
       </c>
       <c r="C56" t="n">
-        <v>5309.74</v>
+        <v>4854.62</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.71523</v>
+        <v>1.70594</v>
       </c>
       <c r="B57" t="n">
-        <v>5.220680000000001</v>
+        <v>4.82631</v>
       </c>
       <c r="C57" t="n">
-        <v>5220.68</v>
+        <v>4826.31</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.74631</v>
+        <v>1.73712</v>
       </c>
       <c r="B58" t="n">
-        <v>5.10463</v>
+        <v>4.79615</v>
       </c>
       <c r="C58" t="n">
-        <v>5104.63</v>
+        <v>4796.15</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.77724</v>
+        <v>1.76803</v>
       </c>
       <c r="B59" t="n">
-        <v>5.002689999999999</v>
+        <v>4.76479</v>
       </c>
       <c r="C59" t="n">
-        <v>5002.69</v>
+        <v>4764.79</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.80825</v>
+        <v>1.7991</v>
       </c>
       <c r="B60" t="n">
-        <v>4.90256</v>
+        <v>4.731680000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>4902.56</v>
+        <v>4731.68</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.83931</v>
+        <v>1.83009</v>
       </c>
       <c r="B61" t="n">
-        <v>4.82046</v>
+        <v>4.69697</v>
       </c>
       <c r="C61" t="n">
-        <v>4820.46</v>
+        <v>4696.97</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.8701</v>
+        <v>1.86103</v>
       </c>
       <c r="B62" t="n">
-        <v>4.73824</v>
+        <v>4.66073</v>
       </c>
       <c r="C62" t="n">
-        <v>4738.24</v>
+        <v>4660.73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.90139</v>
+        <v>1.89215</v>
       </c>
       <c r="B63" t="n">
-        <v>4.64934</v>
+        <v>4.62251</v>
       </c>
       <c r="C63" t="n">
-        <v>4649.34</v>
+        <v>4622.51</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.93199</v>
+        <v>1.92307</v>
       </c>
       <c r="B64" t="n">
-        <v>4.58234</v>
+        <v>4.58302</v>
       </c>
       <c r="C64" t="n">
-        <v>4582.34</v>
+        <v>4583.02</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.96333</v>
+        <v>1.95413</v>
       </c>
       <c r="B65" t="n">
-        <v>4.494890000000001</v>
+        <v>4.54154</v>
       </c>
       <c r="C65" t="n">
-        <v>4494.89</v>
+        <v>4541.54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.99429</v>
+        <v>1.98517</v>
       </c>
       <c r="B66" t="n">
-        <v>4.43874</v>
+        <v>4.498460000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4438.74</v>
+        <v>4498.46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.02542</v>
+        <v>2.01611</v>
       </c>
       <c r="B67" t="n">
-        <v>4.36232</v>
+        <v>4.45387</v>
       </c>
       <c r="C67" t="n">
-        <v>4362.32</v>
+        <v>4453.87</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.05704</v>
+        <v>2.04715</v>
       </c>
       <c r="B68" t="n">
-        <v>4.29674</v>
+        <v>4.40718</v>
       </c>
       <c r="C68" t="n">
-        <v>4296.74</v>
+        <v>4407.18</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.08776</v>
+        <v>2.07792</v>
       </c>
       <c r="B69" t="n">
-        <v>4.23508</v>
+        <v>4.35962</v>
       </c>
       <c r="C69" t="n">
-        <v>4235.08</v>
+        <v>4359.62</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.11844</v>
+        <v>2.10929</v>
       </c>
       <c r="B70" t="n">
-        <v>4.192220000000001</v>
+        <v>4.309600000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4192.22</v>
+        <v>4309.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.15031</v>
+        <v>2.13989</v>
       </c>
       <c r="B71" t="n">
-        <v>4.11895</v>
+        <v>4.2591</v>
       </c>
       <c r="C71" t="n">
-        <v>4118.95</v>
+        <v>4259.1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.18072</v>
+        <v>2.17125</v>
       </c>
       <c r="B72" t="n">
-        <v>4.074780000000001</v>
+        <v>4.206300000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>4074.78</v>
+        <v>4206.3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.21124</v>
+        <v>2.202</v>
       </c>
       <c r="B73" t="n">
-        <v>4.03165</v>
+        <v>4.15315</v>
       </c>
       <c r="C73" t="n">
-        <v>4031.65</v>
+        <v>4153.15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.24306</v>
+        <v>2.23316</v>
       </c>
       <c r="B74" t="n">
-        <v>3.9765</v>
+        <v>4.09797</v>
       </c>
       <c r="C74" t="n">
-        <v>3976.5</v>
+        <v>4097.97</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.27385</v>
+        <v>2.26418</v>
       </c>
       <c r="B75" t="n">
-        <v>3.92344</v>
+        <v>4.04255</v>
       </c>
       <c r="C75" t="n">
-        <v>3923.44</v>
+        <v>4042.55</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.30458</v>
+        <v>2.29516</v>
       </c>
       <c r="B76" t="n">
-        <v>3.89102</v>
+        <v>3.9855</v>
       </c>
       <c r="C76" t="n">
-        <v>3891.02</v>
+        <v>3985.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.33583</v>
+        <v>2.326</v>
       </c>
       <c r="B77" t="n">
-        <v>3.84292</v>
+        <v>3.92854</v>
       </c>
       <c r="C77" t="n">
-        <v>3842.92</v>
+        <v>3928.54</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.36689</v>
+        <v>2.35729</v>
       </c>
       <c r="B78" t="n">
-        <v>3.80206</v>
+        <v>3.87025</v>
       </c>
       <c r="C78" t="n">
-        <v>3802.06</v>
+        <v>3870.25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.39881</v>
+        <v>2.38786</v>
       </c>
       <c r="B79" t="n">
-        <v>3.7848</v>
+        <v>3.81259</v>
       </c>
       <c r="C79" t="n">
-        <v>3784.8</v>
+        <v>3812.59</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.43133</v>
+        <v>2.41949</v>
       </c>
       <c r="B80" t="n">
-        <v>3.76864</v>
+        <v>3.75307</v>
       </c>
       <c r="C80" t="n">
-        <v>3768.64</v>
+        <v>3753.07</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.45985</v>
+        <v>2.45162</v>
       </c>
       <c r="B81" t="n">
-        <v>3.77719</v>
+        <v>3.69173</v>
       </c>
       <c r="C81" t="n">
-        <v>3777.19</v>
+        <v>3691.73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.4924</v>
+        <v>2.48362</v>
       </c>
       <c r="B82" t="n">
-        <v>3.74427</v>
+        <v>3.63117</v>
       </c>
       <c r="C82" t="n">
-        <v>3744.27</v>
+        <v>3631.17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.5256</v>
+        <v>2.51447</v>
       </c>
       <c r="B83" t="n">
-        <v>3.72216</v>
+        <v>3.57208</v>
       </c>
       <c r="C83" t="n">
-        <v>3722.16</v>
+        <v>3572.08</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.55888</v>
+        <v>2.54487</v>
       </c>
       <c r="B84" t="n">
-        <v>3.73262</v>
+        <v>3.51453</v>
       </c>
       <c r="C84" t="n">
-        <v>3732.62</v>
+        <v>3514.53</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.59216</v>
+        <v>2.57478</v>
       </c>
       <c r="B85" t="n">
-        <v>3.71479</v>
+        <v>3.45834</v>
       </c>
       <c r="C85" t="n">
-        <v>3714.79</v>
+        <v>3458.34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.62484</v>
+        <v>2.60531</v>
       </c>
       <c r="B86" t="n">
-        <v>3.68013</v>
+        <v>3.40048</v>
       </c>
       <c r="C86" t="n">
-        <v>3680.13</v>
+        <v>3400.48</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.65567</v>
+        <v>2.63822</v>
       </c>
       <c r="B87" t="n">
-        <v>3.6527</v>
+        <v>3.34025</v>
       </c>
       <c r="C87" t="n">
-        <v>3652.7</v>
+        <v>3340.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.68639</v>
+        <v>2.66965</v>
       </c>
       <c r="B88" t="n">
-        <v>3.6361</v>
+        <v>3.28148</v>
       </c>
       <c r="C88" t="n">
-        <v>3636.1</v>
+        <v>3281.48</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.71711</v>
+        <v>2.70074</v>
       </c>
       <c r="B89" t="n">
-        <v>3.61912</v>
+        <v>3.22428</v>
       </c>
       <c r="C89" t="n">
-        <v>3619.12</v>
+        <v>3224.28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.74783</v>
+        <v>2.73181</v>
       </c>
       <c r="B90" t="n">
-        <v>3.607</v>
+        <v>3.16877</v>
       </c>
       <c r="C90" t="n">
-        <v>3607</v>
+        <v>3168.77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.77855</v>
+        <v>2.76107</v>
       </c>
       <c r="B91" t="n">
-        <v>3.60215</v>
+        <v>3.11481</v>
       </c>
       <c r="C91" t="n">
-        <v>3602.15</v>
+        <v>3114.81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.80927</v>
+        <v>2.79032</v>
       </c>
       <c r="B92" t="n">
-        <v>3.58541</v>
+        <v>3.06233</v>
       </c>
       <c r="C92" t="n">
-        <v>3585.41</v>
+        <v>3062.33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.83962</v>
+        <v>2.82226</v>
       </c>
       <c r="B93" t="n">
-        <v>3.55384</v>
+        <v>3.00637</v>
       </c>
       <c r="C93" t="n">
-        <v>3553.84</v>
+        <v>3006.37</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.86816</v>
+        <v>2.85465</v>
       </c>
       <c r="B94" t="n">
-        <v>3.52956</v>
+        <v>2.94836</v>
       </c>
       <c r="C94" t="n">
-        <v>3529.56</v>
+        <v>2948.36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.89636</v>
+        <v>2.88665</v>
       </c>
       <c r="B95" t="n">
-        <v>3.54133</v>
+        <v>2.89273</v>
       </c>
       <c r="C95" t="n">
-        <v>3541.33</v>
+        <v>2892.73</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.92452</v>
+        <v>2.91865</v>
       </c>
       <c r="B96" t="n">
-        <v>3.49689</v>
+        <v>2.83895</v>
       </c>
       <c r="C96" t="n">
-        <v>3496.89</v>
+        <v>2838.95</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.95268</v>
+        <v>2.9497</v>
       </c>
       <c r="B97" t="n">
-        <v>3.49177</v>
+        <v>2.78693</v>
       </c>
       <c r="C97" t="n">
-        <v>3491.77</v>
+        <v>2786.93</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98099</v>
+        <v>2.97957</v>
       </c>
       <c r="B98" t="n">
-        <v>3.46268</v>
+        <v>2.73643</v>
       </c>
       <c r="C98" t="n">
-        <v>3462.68</v>
+        <v>2736.43</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01486</v>
+        <v>3.00943</v>
       </c>
       <c r="B99" t="n">
-        <v>3.4592</v>
+        <v>2.68785</v>
       </c>
       <c r="C99" t="n">
-        <v>3459.2</v>
+        <v>2687.85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04993</v>
+        <v>3.0393</v>
       </c>
       <c r="B100" t="n">
-        <v>3.41881</v>
+        <v>2.64115</v>
       </c>
       <c r="C100" t="n">
-        <v>3418.81</v>
+        <v>2641.15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.08512</v>
+        <v>3.06838</v>
       </c>
       <c r="B101" t="n">
-        <v>3.4198</v>
+        <v>2.59608</v>
       </c>
       <c r="C101" t="n">
-        <v>3419.8</v>
+        <v>2596.08</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.11777</v>
+        <v>3.0991</v>
       </c>
       <c r="B102" t="n">
-        <v>3.36874</v>
+        <v>2.54839</v>
       </c>
       <c r="C102" t="n">
-        <v>3368.74</v>
+        <v>2548.39</v>
       </c>
     </row>
   </sheetData>
